--- a/biology/Zoologie/Euthalia_mahadeva/Euthalia_mahadeva.xlsx
+++ b/biology/Zoologie/Euthalia_mahadeva/Euthalia_mahadeva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia mahadeva est un papillon de la famille des Nymphalidae, de la sous-famille des Limenitidinae et du genre Euthalia.
 </t>
@@ -511,49 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euthalia mahadeva a été décrit  par Frederic Moore en 1859 sous le nom initial d' Adolias mahadeva[1].
-Sous-espèces
-Euthalia mahadeva mahadeva; présent à Java.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia mahadeva a été décrit  par Frederic Moore en 1859 sous le nom initial d' Adolias mahadeva.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euthalia mahadeva mahadeva; présent à Java.
 Euthalia mahadeva binghami de Nicéville, 1895; présent en Birmanie et en Thaïlande
 Euthalia mahadeva rhamases Staudinger, 1889; présent aux Philippines
 Euthalia mahadeva sakii de Nicéville, 1894; présent dans le nord-est de Sumatra.
 Euthalia mahadeva sericea Fruhstorfer, 1896; présent à Nias
 Euthalia mahadeva zichri (Butler, 1869); présent à Bornéo.
-Euthalia mahadeva zichrina Fruhstorfer, 1904; présent en Malaisie et  en Thaïlande[1],[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euthalia_mahadeva</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euthalia_mahadeva</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures à apex anguleux et bord externe concave et ailes postérieures à angle anal anguleux.
-Les ailes du mâle sont, sur le dessus,  marron avec aux ailes postérieures une bande marginale bleu-gris, et le revers est beige marbré. Les ailes de la femelle sont beige marbré.
-</t>
+Euthalia mahadeva zichrina Fruhstorfer, 1904; présent en Malaisie et  en Thaïlande,.</t>
         </is>
       </c>
     </row>
@@ -578,12 +595,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures à apex anguleux et bord externe concave et ailes postérieures à angle anal anguleux.
+Les ailes du mâle sont, sur le dessus,  marron avec aux ailes postérieures une bande marginale bleu-gris, et le revers est beige marbré. Les ailes de la femelle sont beige marbré.
+</t>
         </is>
       </c>
     </row>
@@ -611,14 +632,87 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia mahadeva est présent en Birmanie, en Thaïlande, en Malaisie, aux Philippines, à Bornéo, à Sumatra et à Nias [1].
-Biotope
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia mahadeva est présent en Birmanie, en Thaïlande, en Malaisie, aux Philippines, à Bornéo, à Sumatra et à Nias .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Euthalia mahadeva, sur Wikimedia CommonsEuthalia mahadeva, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_mahadeva</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
